--- a/src/main/resources/excel-files/scores-data.xlsx
+++ b/src/main/resources/excel-files/scores-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Moraga Calvo\Postman\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Moraga Calvo\Downloads\educationTop\src\main\resources\excel-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5A2D2-8069-49BD-9F2D-0E72340F172E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CF02EF-F78B-4C2A-A771-45DD537B7B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA31C368-01F6-47A1-AEEC-E43B3F19B708}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EA31C368-01F6-47A1-AEEC-E43B3F19B708}"/>
   </bookViews>
   <sheets>
     <sheet name="examOne" sheetId="1" r:id="rId1"/>
@@ -460,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEA4A8C-6998-4496-932E-4B8BA13657E3}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C9AEBA7-1ED5-4BA0-9AC3-2264072EC014}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +666,7 @@
         <v>45235</v>
       </c>
       <c r="D2">
-        <v>960</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.35">
